--- a/output/2.1结果.xlsx
+++ b/output/2.1结果.xlsx
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>121298.35</v>
+        <v>142573.03</v>
       </c>
       <c r="D7" t="n">
-        <v>8574.934571</v>
+        <v>10146.532784</v>
       </c>
       <c r="E7" t="n">
-        <v>1.77</v>
+        <v>2.19</v>
       </c>
       <c r="F7" t="n">
-        <v>7.069292015101607</v>
+        <v>7.116726623541634</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>211688.17</v>
+        <v>248335.17</v>
       </c>
       <c r="D8" t="n">
-        <v>20976.417657</v>
+        <v>24604.902926</v>
       </c>
       <c r="E8" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="F8" t="n">
-        <v>9.909111905969992</v>
+        <v>9.907941322205792</v>
       </c>
     </row>
     <row r="9">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>90389.82000000001</v>
+        <v>105762.14</v>
       </c>
       <c r="D18" t="n">
-        <v>12401.483086</v>
+        <v>14458.370142</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>-0.39</v>
       </c>
       <c r="F18" t="n">
-        <v>13.7199997588224</v>
+        <v>13.67064825087692</v>
       </c>
     </row>
     <row r="19">

--- a/output/2.1结果.xlsx
+++ b/output/2.1结果.xlsx
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>142573.03</v>
+        <v>164552.48</v>
       </c>
       <c r="D7" t="n">
-        <v>10146.532784</v>
+        <v>11705.739473</v>
       </c>
       <c r="E7" t="n">
-        <v>2.19</v>
+        <v>2.9</v>
       </c>
       <c r="F7" t="n">
-        <v>7.116726623541634</v>
+        <v>7.113681588390524</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>248335.17</v>
+        <v>285838.15</v>
       </c>
       <c r="D8" t="n">
-        <v>24604.902926</v>
+        <v>28071.05795</v>
       </c>
       <c r="E8" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>9.907941322205792</v>
+        <v>9.820612801335301</v>
       </c>
     </row>
     <row r="9">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>105762.14</v>
+        <v>121285.67</v>
       </c>
       <c r="D18" t="n">
-        <v>14458.370142</v>
+        <v>16365.318477</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.39</v>
+        <v>-1.05</v>
       </c>
       <c r="F18" t="n">
-        <v>13.67064825087692</v>
+        <v>13.49320037313559</v>
       </c>
     </row>
     <row r="19">
